--- a/LE4_Evaluation/ivi_LE4_Auswertung.xlsx
+++ b/LE4_Evaluation/ivi_LE4_Auswertung.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhnw365-my.sharepoint.com/personal/siben_tran_students_fhnw_ch/Documents/Module/MG_7_Datenvisualisierung/ivi_Interaktive_Visualisierung/ivi_LE4_Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="11_AD4DB114E441178AC67DF4371650D40E683EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979B8C14-161F-4CDD-8F0D-C4782931A888}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="11_AD4DB114E441178AC67DF4371650D40E683EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3588D98-46EA-4219-B7A7-07235FD443C5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6900" yWindow="5150" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung ivi LE4" sheetId="1" r:id="rId1"/>
+    <sheet name="Fragen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Person</t>
   </si>
@@ -150,13 +151,34 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Hattest du jemals in deinem Leben einen Bezug zu Pokémon?</t>
+  </si>
+  <si>
+    <t>Du siehst eine interaktive Landschafts Visualisierung, Kannst du mir sagen, wie viele Bidoof Spawn Orte in Obsidian Fieldlands es gibt?</t>
+  </si>
+  <si>
+    <t>In Cobal Coastland gibt es eine Vulkaninsel, kannst du mir sagen, welche Pokémon dort auftauchen?</t>
+  </si>
+  <si>
+    <t>In Obsidian Fieldlands, wie viele Pikachu Spawn Orte gibt es?</t>
+  </si>
+  <si>
+    <t>Auf welcher Landschaft befindet sich das Pokémon Mismagius</t>
+  </si>
+  <si>
+    <t>Kannst du mir sagen, wie viele Unown sich in Jubilife Village befinden Und wo sich der Nord östliche Unown befindet?</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +193,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -262,6 +291,83 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -273,22 +379,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -305,6 +419,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,15 +726,15 @@
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -631,7 +749,7 @@
       <c r="A6" s="4">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -639,7 +757,7 @@
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -647,33 +765,33 @@
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -682,7 +800,7 @@
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -691,7 +809,7 @@
       <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -700,7 +818,7 @@
       <c r="M11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="O11" s="2" t="s">
@@ -709,7 +827,7 @@
       <c r="P11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="R11" s="2" t="s">
@@ -720,558 +838,604 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>23</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="K12" s="17">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="17">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>3</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5">
-        <v>1</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="Q12" s="17">
+        <v>1</v>
+      </c>
+      <c r="R12">
         <v>3</v>
       </c>
-      <c r="S12" s="6"/>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>25</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>2</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="17">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5">
-        <v>1</v>
-      </c>
-      <c r="R13" s="5">
+      <c r="N13" s="17">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>1</v>
+      </c>
+      <c r="R13">
         <v>3</v>
       </c>
-      <c r="S13" s="6"/>
+      <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>18</v>
       </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>2</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
-        <v>2</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5">
-        <v>1</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="N14" s="17">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>1</v>
+      </c>
+      <c r="R14">
         <v>3</v>
       </c>
-      <c r="S14" s="6"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>23</v>
       </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>2</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
-        <v>2</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5">
-        <v>2</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5">
-        <v>1</v>
-      </c>
-      <c r="R15" s="5">
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="K15" s="17">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="N15" s="17">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>1</v>
+      </c>
+      <c r="R15">
         <v>3</v>
       </c>
-      <c r="S15" s="6"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>22</v>
       </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8">
-        <v>1</v>
-      </c>
-      <c r="L16" s="8">
-        <v>2</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8">
-        <v>1</v>
-      </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8">
-        <v>1</v>
-      </c>
-      <c r="R16" s="8">
-        <v>2</v>
-      </c>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="18">
+        <v>1</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="18">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="18">
+        <v>1</v>
+      </c>
+      <c r="R16" s="7">
+        <v>2</v>
+      </c>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B18" s="2">
         <f>AVERAGE(B12:B16)</f>
         <v>22.2</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" ref="C19:N19" si="0">AVERAGE(C12:C16)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2">
-        <f t="shared" ref="Q19" si="1">AVERAGE(Q12:Q16)</f>
-        <v>1</v>
-      </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10">
+      <c r="C18" s="16">
         <f>AVERAGE(C12:C16)</f>
         <v>0.2</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10">
+      <c r="D18" s="2"/>
+      <c r="E18" s="16">
         <f>AVERAGE(E12:E16)</f>
         <v>0.8</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="11">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="16">
         <f>AVERAGE(H12:H16)</f>
         <v>0.4</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="10">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="16">
         <f>AVERAGE(K12:K16)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="10">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="16">
         <f>AVERAGE(N12:N16)</f>
         <v>1</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="16">
+        <f>AVERAGE(Q12:Q16)</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="19">
+        <f>AVERAGE(C12:C16)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="19">
+        <f>AVERAGE(E12:E16)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="19">
+        <f>AVERAGE(H12:H16)</f>
+        <v>0.4</v>
+      </c>
+      <c r="K19" s="19">
+        <f>AVERAGE(K12:K16)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="19">
+        <f>AVERAGE(N12:N16)</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="19">
+        <f>AVERAGE(Q12:Q16)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="20">
+        <f>1 - C19</f>
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="20">
+        <f t="shared" ref="E20:N20" si="0">1 - E19</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="10">
-        <f t="shared" ref="Q20" si="2">AVERAGE(Q12:Q16)</f>
-        <v>1</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="6"/>
+      <c r="Q20" s="20">
+        <f t="shared" ref="Q20" si="1">1 - Q19</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="12">
-        <f>1 - C20</f>
-        <v>0.8</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12">
-        <f t="shared" ref="E21:N21" si="3">1 - E20</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12">
-        <f t="shared" ref="Q21" si="4">1 - Q20</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="6"/>
+      <c r="A21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <f>MIN(B12:B16)</f>
+        <v>18</v>
+      </c>
+      <c r="C21" s="17">
+        <f t="shared" ref="C21:R21" si="2">MIN(C12:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S21" s="5"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5">
-        <f>MIN(B12:B16)</f>
-        <v>18</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" ref="C22:S22" si="5">MIN(C12:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="R22" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B22">
         <f>MEDIAN(B12:B16)</f>
         <v>23</v>
       </c>
-      <c r="C23" s="5">
-        <f t="shared" ref="C23:S23" si="6">MEDIAN(C12:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="R23" s="5">
-        <f t="shared" si="6"/>
+      <c r="C22" s="17">
+        <f t="shared" ref="C22:R22" si="3">MEDIAN(C12:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K22" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="S23" s="6"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="14" t="s">
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B23" s="7">
         <f>MAX(B12:B16)</f>
         <v>25</v>
       </c>
-      <c r="C24" s="8">
-        <f t="shared" ref="C24:S24" si="7">MAX(C12:C16)</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="7"/>
+      <c r="C23" s="18">
+        <f t="shared" ref="C23:R23" si="4">MAX(C12:C16)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="8">
-        <f t="shared" si="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R24" s="8">
-        <f t="shared" si="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="S24" s="9"/>
+      <c r="S23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E12793-B359-4DA7-84C0-AD5C3ED68586}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="122.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>